--- a/Cost/Toys/Cost_List.xlsx
+++ b/Cost/Toys/Cost_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Total Recibido</t>
   </si>
@@ -27,19 +27,16 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Foam Cutter</t>
-  </si>
-  <si>
     <t>Left:</t>
-  </si>
-  <si>
-    <t>Vaina</t>
   </si>
   <si>
     <t>Precio_U</t>
   </si>
   <si>
     <t>P_total</t>
+  </si>
+  <si>
+    <t>Hardware</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,26 +410,30 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>255.39</v>
+      </c>
       <c r="E5">
         <f>D5*C5</f>
-        <v>0</v>
+        <v>255.39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="E6">
         <f t="shared" ref="E6:E26" si="0">D6*C6</f>
@@ -605,22 +606,23 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2"/>
       <c r="D28">
         <f>C1-SUM(E5:E26)</f>
-        <v>500</v>
+        <v>244.61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -633,13 +635,12 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cost/Toys/Cost_List.xlsx
+++ b/Cost/Toys/Cost_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Total Recibido</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>Hardware2</t>
   </si>
 </sst>
 </file>
@@ -381,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,11 +436,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="2"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>57.18</v>
+      </c>
       <c r="E6">
         <f t="shared" ref="E6:E26" si="0">D6*C6</f>
-        <v>0</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,18 +622,17 @@
       <c r="B28" s="2"/>
       <c r="D28">
         <f>C1-SUM(E5:E26)</f>
-        <v>244.61</v>
+        <v>187.43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -635,12 +645,13 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cost/Toys/Cost_List.xlsx
+++ b/Cost/Toys/Cost_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Total Recibido</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Hardware2</t>
+  </si>
+  <si>
+    <t>Hardware 3</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,19 +447,27 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>57.18</v>
+        <v>57.28</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E26" si="0">D6*C6</f>
-        <v>57.18</v>
+        <v>57.28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="2"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>56.6</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,17 +633,18 @@
       <c r="B28" s="2"/>
       <c r="D28">
         <f>C1-SUM(E5:E26)</f>
-        <v>187.43</v>
+        <v>130.73000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -645,13 +657,12 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
